--- a/biology/Botanique/Metapanax/Metapanax.xlsx
+++ b/biology/Botanique/Metapanax/Metapanax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metapanax est un genre de plantes de la famille des Araliaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Tropicos, les espèces sont :
 Metapanax davidii, (Franch.) J.Wen &amp; Frodin
 Metapanax delavayi, (Franch.) J.Wen &amp; Frodin
 Metapanax delavayi var. longicaudatus, (K.M.Feng) R.Li &amp; H.Li = Metapanax delavayi, (Franch.) J.Wen &amp; Frodin
-Selon Catalogue of Life                                   (9 septembre 2020)[2], World Checklist of Selected Plant Families (WCSP)  (9 septembre 2020)[3],  The Plant List            (9 septembre 2020)[4] et Tropicos                                           (9 septembre 2020)[5] :
+Selon Catalogue of Life                                   (9 septembre 2020), World Checklist of Selected Plant Families (WCSP)  (9 septembre 2020),  The Plant List            (9 septembre 2020) et Tropicos                                           (9 septembre 2020) :
 Metapanax davidii (Franch.) J.Wen &amp; Frodin (2001)
 Metapanax delavayi (Franch.) J.Wen &amp; Frodin (2001)</t>
         </is>
